--- a/tests/19-9999/19M8/SMP2-19M8_masquerade-19M88_report.xlsx
+++ b/tests/19-9999/19M8/SMP2-19M8_masquerade-19M88_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sararey/PycharmProjects/CRUK_report/tests/19-9999/19M8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254095B8-C713-8E4D-B08A-BD8D1F800E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AF5CAE-822F-094A-8578-DD39DB89DA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient Summary" sheetId="1" r:id="rId1"/>
@@ -612,9 +612,6 @@
     <t>vc 02/03/2019</t>
   </si>
   <si>
-    <t>SMP2-19M82</t>
-  </si>
-  <si>
     <t>No variant detected</t>
   </si>
   <si>
@@ -631,6 +628,9 @@
   </si>
   <si>
     <t>SMP2-19M88</t>
+  </si>
+  <si>
+    <t>SMP2-19M8</t>
   </si>
 </sst>
 </file>
@@ -2776,7 +2776,7 @@
   </sheetPr>
   <dimension ref="A1:W199"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C3" s="61" t="str">
         <f>Metadata!B2</f>
-        <v>SMP2-19M82</v>
+        <v>SMP2-19M8</v>
       </c>
       <c r="D3" s="87"/>
       <c r="E3" s="52" t="s">
@@ -14276,7 +14276,7 @@
     <row r="2" spans="1:13">
       <c r="A2" s="73" t="str">
         <f>Metadata!B2</f>
-        <v>SMP2-19M82</v>
+        <v>SMP2-19M8</v>
       </c>
       <c r="D2" s="72" t="s">
         <v>95</v>
@@ -14291,7 +14291,7 @@
         <v>97</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" t="str">
         <f t="array" ref="I2">IF(H2="No variant detected","High confidence",IF(H2="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E2,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14327,7 +14327,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" t="str">
         <f t="array" ref="I3">IF(H3="No variant detected","High confidence",IF(H3="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E3,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14359,7 +14359,7 @@
         <v>102</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I4" t="str">
         <f t="array" ref="I4">IF(H4="No variant detected","High confidence",IF(H4="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E4,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14391,7 +14391,7 @@
         <v>104</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I5" t="str">
         <f t="array" ref="I5">IF(H5="No variant detected","High confidence",IF(H5="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E5,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14423,7 +14423,7 @@
         <v>106</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I6" t="str">
         <f t="array" ref="I6">IF(H6="No variant detected","High confidence",IF(H6="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E6,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14455,7 +14455,7 @@
         <v>108</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I7" t="str">
         <f t="array" ref="I7">IF(H7="No variant detected","High confidence",IF(H7="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E7,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14487,7 +14487,7 @@
         <v>110</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I8" t="str">
         <f t="array" ref="I8">IF(H8="No variant detected","High confidence",IF(H8="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E8,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14519,7 +14519,7 @@
         <v>112</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I9" t="str">
         <f t="array" ref="I9">IF(H9="No variant detected","High confidence",IF(H9="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E9,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14551,7 +14551,7 @@
         <v>114</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I10" t="str">
         <f t="array" ref="I10">IF(H10="No variant detected","High confidence",IF(H10="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E10,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14583,7 +14583,7 @@
         <v>116</v>
       </c>
       <c r="H11" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" t="str">
         <f t="array" ref="I11">IF(H11="No variant detected","High confidence",IF(H11="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E11,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14615,7 +14615,7 @@
         <v>118</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" t="str">
         <f t="array" ref="I12">IF(H12="No variant detected","High confidence",IF(H12="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E12,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14647,7 +14647,7 @@
         <v>120</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" t="str">
         <f t="array" ref="I13">IF(H13="No variant detected","High confidence",IF(H13="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E13,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14679,7 +14679,7 @@
         <v>122</v>
       </c>
       <c r="H14" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I14" t="str">
         <f t="array" ref="I14">IF(H14="No variant detected","High confidence",IF(H14="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E14,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14711,7 +14711,7 @@
         <v>124</v>
       </c>
       <c r="H15" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I15" t="str">
         <f t="array" ref="I15">IF(H15="No variant detected","High confidence",IF(H15="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E15,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14743,7 +14743,7 @@
         <v>126</v>
       </c>
       <c r="H16" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" t="str">
         <f t="array" ref="I16">IF(H16="No variant detected","High confidence",IF(H16="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E16,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14775,7 +14775,7 @@
         <v>128</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I17" t="str">
         <f t="array" ref="I17">IF(H17="No variant detected","High confidence",IF(H17="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E17,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14807,7 +14807,7 @@
         <v>130</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I18" t="str">
         <f t="array" ref="I18">IF(H18="No variant detected","High confidence",IF(H18="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E18,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14839,7 +14839,7 @@
         <v>132</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I19" t="str">
         <f t="array" ref="I19">IF(H19="No variant detected","High confidence",IF(H19="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E19,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14901,7 +14901,7 @@
         <v>136</v>
       </c>
       <c r="H21" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I21" t="str">
         <f t="array" ref="I21">IF(H21="No variant detected","High confidence",IF(H21="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E21,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14933,10 +14933,10 @@
         <v>138</v>
       </c>
       <c r="H22" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" t="s">
         <v>196</v>
-      </c>
-      <c r="I22" t="s">
-        <v>197</v>
       </c>
       <c r="J22" s="69" t="str">
         <f t="shared" si="1"/>
@@ -14964,7 +14964,7 @@
         <v>140</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I23" t="str">
         <f t="array" ref="I23">IF(H23="No variant detected","High confidence",IF(H23="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E23,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -14996,7 +14996,7 @@
         <v>142</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I24" t="str">
         <f t="array" ref="I24">IF(H24="No variant detected","High confidence",IF(H24="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E24,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15028,7 +15028,7 @@
         <v>144</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I25" t="str">
         <f t="array" ref="I25">IF(H25="No variant detected","High confidence",IF(H25="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E25,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15060,7 +15060,7 @@
         <v>146</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I26" t="str">
         <f t="array" ref="I26">IF(H26="No variant detected","High confidence",IF(H26="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E26,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15092,7 +15092,7 @@
         <v>148</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27" t="str">
         <f t="array" ref="I27">IF(H27="No variant detected","High confidence",IF(H27="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E27,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15124,7 +15124,7 @@
         <v>150</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I28" t="str">
         <f t="array" ref="I28">IF(H28="No variant detected","High confidence",IF(H28="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E28,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15156,7 +15156,7 @@
         <v>152</v>
       </c>
       <c r="H29" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I29" t="str">
         <f t="array" ref="I29">IF(H29="No variant detected","High confidence",IF(H29="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E29,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15188,7 +15188,7 @@
         <v>154</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I30" t="str">
         <f t="array" ref="I30">IF(H30="No variant detected","High confidence",IF(H30="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E30,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15220,7 +15220,7 @@
         <v>156</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I31" t="str">
         <f t="array" ref="I31">IF(H31="No variant detected","High confidence",IF(H31="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E31,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15252,7 +15252,7 @@
         <v>158</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I32" t="str">
         <f t="array" ref="I32">IF(H32="No variant detected","High confidence",IF(H32="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E32,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15284,10 +15284,10 @@
         <v>160</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J33" s="69" t="str">
         <f t="shared" si="1"/>
@@ -15315,7 +15315,7 @@
         <v>162</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I34" t="str">
         <f t="array" ref="I34">IF(H34="No variant detected","High confidence",IF(H34="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E34,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15347,7 +15347,7 @@
         <v>164</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I35" t="str">
         <f t="array" ref="I35">IF(H35="No variant detected","High confidence",IF(H35="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E35,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15379,7 +15379,7 @@
         <v>166</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I36" t="str">
         <f t="array" ref="I36">IF(H36="No variant detected","High confidence",IF(H36="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E36,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15411,7 +15411,7 @@
         <v>168</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I37" t="str">
         <f t="array" ref="I37">IF(H37="No variant detected","High confidence",IF(H37="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E37,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15443,7 +15443,7 @@
         <v>170</v>
       </c>
       <c r="H38" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" t="str">
         <f t="array" ref="I38">IF(H38="No variant detected","High confidence",IF(H38="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E38,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15475,7 +15475,7 @@
         <v>172</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" t="str">
         <f t="array" ref="I39">IF(H39="No variant detected","High confidence",IF(H39="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E39,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15507,7 +15507,7 @@
         <v>174</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I40" t="str">
         <f t="array" ref="I40">IF(H40="No variant detected","High confidence",IF(H40="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E40,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15539,7 +15539,7 @@
         <v>176</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I41" t="str">
         <f t="array" ref="I41">IF(H41="No variant detected","High confidence",IF(H41="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E41,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15571,7 +15571,7 @@
         <v>178</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I42" t="str">
         <f t="array" ref="I42">IF(H42="No variant detected","High confidence",IF(H42="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E42,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15603,7 +15603,7 @@
         <v>180</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I43" t="str">
         <f t="array" ref="I43">IF(H43="No variant detected","High confidence",IF(H43="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E43,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15635,7 +15635,7 @@
         <v>182</v>
       </c>
       <c r="H44" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I44" t="str">
         <f t="array" ref="I44">IF(H44="No variant detected","High confidence",IF(H44="No result","Fail, repeat sample requested",_xlfn.TEXTJOIN(" AND ",TRUE,IF(PreReport!$A$6:$H$105=$E44,PreReport!$I$6:$I$105,TEXT(,)))))</f>
@@ -15673,8 +15673,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15695,7 +15695,7 @@
         <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
